--- a/pred_ohlcv/54_21/2020-01-13 FCT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 FCT ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>1268098.951158444</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-2127801.996808433</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-2127801.996808433</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-2127801.996808433</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-2127801.996808433</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-2139181.057431265</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-2139233.689031265</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-2139286.557131265</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-2159495.988531265</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-1923752.604531265</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-1923968.795631265</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-1928847.383931265</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-1962209.483631265</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-1962209.483631265</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-1962149.911431265</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-1962089.637431265</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-1960840.770431265</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-1946461.620431265</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-1946539.620431265</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-1956539.620431265</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-1971415.291531265</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-1964623.491031265</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-1930598.050997699</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-1930598.050997699</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-1975150.276997699</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-1975127.279997699</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-1897089.854997699</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-1904985.128597699</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-1974985.313097699</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-2089455.775797699</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-2134110.597597699</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-2192979.226097699</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-2063221.520397699</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-2116659.578197699</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-2116659.578197699</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-3209703.4120977</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-3209703.4120977</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-3209703.4120977</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-3225338.0254977</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-3184231.1246977</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-3180602.4323977</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-3262831.817142582</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-3257268.775842581</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-3257268.775842581</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-3258378.775842581</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-3233746.952742581</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-3223746.952742581</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-13 FCT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 FCT ohlcv.xlsx
@@ -964,7 +964,7 @@
         <v>-2127801.996808433</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-2127801.996808433</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-2127801.996808433</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-2127801.996808433</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-2139181.057431265</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-2139233.689031265</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-2139286.557131265</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-2159495.988531265</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-1923752.604531265</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-1923968.795631265</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-1928847.383931265</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-1960840.770431265</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-1946461.620431265</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-1946539.620431265</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-1956539.620431265</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-1971415.291531265</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-1964623.491031265</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-1930598.050997699</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-1930598.050997699</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-1975150.276997699</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-1897089.854997699</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-1904985.128597699</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-1974985.313097699</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-2089455.775797699</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-2134110.597597699</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-2134090.597597699</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-2160074.689997699</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-2222046.863897699</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-2219556.622897699</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-2226118.440397699</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-2206432.987697699</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-2191859.226097699</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-2192979.226097699</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-2188429.565997699</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-2141239.560797699</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-2063221.520397699</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-2116659.578197699</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-2116659.578197699</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-2116659.578197699</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-2146718.485797699</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-2394778.279897699</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-3209703.4120977</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-3209703.4120977</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-3209703.4120977</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-3225338.0254977</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-3184231.1246977</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-3184231.1246977</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-3262831.817142582</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-3257268.775842581</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-3257268.775842581</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-3258378.775842581</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-3233746.952742581</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-3223746.952742581</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
